--- a/ScrumDocs/Spring Backlog.xlsx
+++ b/ScrumDocs/Spring Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bb11\MY_FILES\Module_timetable\SEM_1\AGILE_SOFTWARE_DEVELOPMENT\module_information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takis\Documents\GitHub\ProjectPTS\ScrumDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Task ID</t>
   </si>
@@ -87,12 +87,27 @@
   </si>
   <si>
     <t>Day of the Sprint when the task  become not valid (the consecutive number of the corresponding Daily Scrum meeting)</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Create HTML Homepage</t>
+  </si>
+  <si>
+    <t>Takis/Marina</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,62 +631,23 @@
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -679,6 +655,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -697,40 +727,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,787 +1061,797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
     <col min="18" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="54" t="s">
+    <row r="2" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="18" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-    </row>
-    <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="2" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
+    </row>
+    <row r="4" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="59"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-    </row>
-    <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="25">
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="46"/>
+    </row>
+    <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="19">
         <v>6</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="19">
         <v>7</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="16">
         <v>2</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="16">
         <v>3</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="16">
         <v>5</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="15">
         <v>1</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="16">
         <v>2</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="16">
         <v>3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="16">
         <v>4</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="16">
         <v>5</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D9" s="10"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="11"/>
-    </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="11"/>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="11"/>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-    </row>
-    <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="38" t="s">
+    <row r="6" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="31"/>
-    </row>
-    <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E34" s="44" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E34" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E35" s="45" t="s">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-    </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="4" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="51"/>
-    </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E37" s="4" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E38" s="5" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="53"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/ScrumDocs/Spring Backlog.xlsx
+++ b/ScrumDocs/Spring Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takis\Documents\GitHub\ProjectPTS\ScrumDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\GitHub\ProjectPTS\ScrumDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Task ID</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>Writing back end codes for login.php</t>
+  </si>
+  <si>
+    <t>Done, might need review</t>
+  </si>
+  <si>
+    <t>php Leo   Done,Might need Review</t>
   </si>
 </sst>
 </file>
@@ -1065,31 +1077,31 @@
   <dimension ref="D2:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
     <col min="18" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="58" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="U3" s="42"/>
       <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="59"/>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -1151,7 +1163,7 @@
       <c r="U4" s="45"/>
       <c r="V4" s="46"/>
     </row>
-    <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="15">
         <v>1</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -1231,7 +1243,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1252,7 +1264,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1273,7 +1285,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1294,7 +1306,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1315,7 +1327,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1336,7 +1348,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1357,7 +1369,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1378,7 +1390,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1399,7 +1411,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1420,7 +1432,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1441,7 +1453,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1462,7 +1474,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1493,12 +1505,20 @@
       <c r="U18" s="5"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
       <c r="K19" s="20"/>
@@ -1514,7 +1534,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1535,7 +1555,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1556,7 +1576,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1577,7 +1597,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1598,7 +1618,7 @@
       <c r="U23" s="5"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1619,7 +1639,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1640,7 +1660,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1661,7 +1681,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="7"/>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1682,7 +1702,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1703,7 +1723,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="7"/>
     </row>
-    <row r="29" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1724,7 +1744,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="47" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1767,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -1768,12 +1788,12 @@
       <c r="U31" s="9"/>
       <c r="V31" s="10"/>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1813,7 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1833,7 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="30"/>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1853,7 @@
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
